--- a/resources/Brainstorm.xlsx
+++ b/resources/Brainstorm.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KDSharp\data-science\smu-bootcamp\March-Madness-ETL\kirpatrick\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KDSharp\data-science\smu-bootcamp\March-Madness-ETL\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABB5E5AF-335E-4945-A845-8E90E4E543EC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C23625B-26DA-45C1-93F7-94D4CBB1C685}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1068" yWindow="-108" windowWidth="22080" windowHeight="13176" xr2:uid="{76BB9F22-CB3F-41C4-A857-347510B57842}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="66">
   <si>
     <t>first_round</t>
   </si>
@@ -180,13 +180,64 @@
   </si>
   <si>
     <t>http://www.espn.com/mens-college-basketball/tournament/bracket</t>
+  </si>
+  <si>
+    <t>March Madness 2020:  Complete schedule, dates</t>
+  </si>
+  <si>
+    <t>https://www.ncaa.com/news/basketball-men/article/march-madness-2020-schedule</t>
+  </si>
+  <si>
+    <t>Who usually wins based on seeding</t>
+  </si>
+  <si>
+    <t>Year</t>
+  </si>
+  <si>
+    <t>Round</t>
+  </si>
+  <si>
+    <t>Region Number</t>
+  </si>
+  <si>
+    <t>Home Seed</t>
+  </si>
+  <si>
+    <t>Away Seed</t>
+  </si>
+  <si>
+    <t>Home Score</t>
+  </si>
+  <si>
+    <t>Away Score</t>
+  </si>
+  <si>
+    <t>count</t>
+  </si>
+  <si>
+    <t>mean</t>
+  </si>
+  <si>
+    <t>std</t>
+  </si>
+  <si>
+    <t>min</t>
+  </si>
+  <si>
+    <t>max</t>
+  </si>
+  <si>
+    <t>The 2020 tournament field will be revealed on Selection Sunday</t>
+  </si>
+  <si>
+    <t> — when the full field of 68, seeding, and bracket are released — on March 15, 2020.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -216,13 +267,44 @@
       <name val="Georgia"/>
       <family val="1"/>
     </font>
+    <font>
+      <b/>
+      <sz val="7"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="7"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF5F5F5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -238,7 +320,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -247,6 +329,28 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -563,10 +667,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53F02507-C652-46B6-9849-48369DFE9BEB}">
-  <dimension ref="A1:L46"/>
+  <dimension ref="A1:R79"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="F55" sqref="F55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -737,7 +841,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>9</v>
       </c>
@@ -745,12 +849,12 @@
         <v>41</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B18" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
         <v>28</v>
       </c>
@@ -758,17 +862,17 @@
         <v>42</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.3">
       <c r="J20" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B21" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:18" x14ac:dyDescent="0.3">
       <c r="C22" t="s">
         <v>30</v>
       </c>
@@ -776,12 +880,12 @@
         <v>45</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B25" t="s">
         <v>13</v>
       </c>
@@ -789,74 +893,1233 @@
         <v>46</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B26" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:18" x14ac:dyDescent="0.3">
       <c r="C27" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J27" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="K27" s="5"/>
+      <c r="L27" s="5"/>
+      <c r="M27" s="5"/>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.3">
       <c r="C28" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:18" x14ac:dyDescent="0.3">
       <c r="C29" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:18" ht="19.2" x14ac:dyDescent="0.3">
+      <c r="K31" s="6"/>
+      <c r="L31" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="M31" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="N31" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="O31" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="P31" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q31" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="R31" s="6" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="K32" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="L32" s="7">
+        <v>62</v>
+      </c>
+      <c r="M32" s="7">
+        <v>62</v>
+      </c>
+      <c r="N32" s="7">
+        <v>62</v>
+      </c>
+      <c r="O32" s="7">
+        <v>62</v>
+      </c>
+      <c r="P32" s="7">
+        <v>62</v>
+      </c>
+      <c r="Q32" s="7">
+        <v>62</v>
+      </c>
+      <c r="R32" s="7">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="33" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="K33" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="L33" s="8">
+        <v>2019</v>
+      </c>
+      <c r="M33" s="8">
+        <v>1.9193549999999999</v>
+      </c>
+      <c r="N33" s="8">
+        <v>2.451613</v>
+      </c>
+      <c r="O33" s="8">
+        <v>3.4838710000000002</v>
+      </c>
+      <c r="P33" s="8">
+        <v>9.4354840000000006</v>
+      </c>
+      <c r="Q33" s="8">
+        <v>72.419354999999996</v>
+      </c>
+      <c r="R33" s="8">
+        <v>67.370968000000005</v>
+      </c>
+    </row>
+    <row r="34" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B34" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="K34" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="L34" s="7">
+        <v>0</v>
+      </c>
+      <c r="M34" s="7">
+        <v>1.205158</v>
+      </c>
+      <c r="N34" s="7">
+        <v>1.1405700000000001</v>
+      </c>
+      <c r="O34" s="7">
+        <v>2.5268519999999999</v>
+      </c>
+      <c r="P34" s="7">
+        <v>4.2643050000000002</v>
+      </c>
+      <c r="Q34" s="7">
+        <v>10.883208</v>
+      </c>
+      <c r="R34" s="7">
+        <v>12.57011</v>
+      </c>
+    </row>
+    <row r="35" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B35" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="K35" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="L35" s="8">
+        <v>2019</v>
+      </c>
+      <c r="M35" s="8">
+        <v>1</v>
+      </c>
+      <c r="N35" s="8">
+        <v>1</v>
+      </c>
+      <c r="O35" s="8">
+        <v>1</v>
+      </c>
+      <c r="P35" s="8">
+        <v>1</v>
+      </c>
+      <c r="Q35" s="8">
+        <v>44</v>
+      </c>
+      <c r="R35" s="8">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="36" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="K36" s="9">
+        <v>0.25</v>
+      </c>
+      <c r="L36" s="7">
+        <v>2019</v>
+      </c>
+      <c r="M36" s="7">
+        <v>1</v>
+      </c>
+      <c r="N36" s="7">
+        <v>1</v>
+      </c>
+      <c r="O36" s="7">
+        <v>1.25</v>
+      </c>
+      <c r="P36" s="7">
+        <v>6</v>
+      </c>
+      <c r="Q36" s="7">
+        <v>64</v>
+      </c>
+      <c r="R36" s="7">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="37" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B37" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="K37" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="L37" s="8">
+        <v>2019</v>
+      </c>
+      <c r="M37" s="8">
+        <v>1.5</v>
+      </c>
+      <c r="N37" s="8">
+        <v>2</v>
+      </c>
+      <c r="O37" s="8">
+        <v>3</v>
+      </c>
+      <c r="P37" s="8">
+        <v>10</v>
+      </c>
+      <c r="Q37" s="8">
+        <v>74.5</v>
+      </c>
+      <c r="R37" s="8">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="38" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B38" s="1" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="K38" s="9">
+        <v>0.75</v>
+      </c>
+      <c r="L38" s="7">
+        <v>2019</v>
+      </c>
+      <c r="M38" s="7">
+        <v>2</v>
+      </c>
+      <c r="N38" s="7">
+        <v>3</v>
+      </c>
+      <c r="O38" s="7">
+        <v>5</v>
+      </c>
+      <c r="P38" s="7">
+        <v>12</v>
+      </c>
+      <c r="Q38" s="7">
+        <v>79.75</v>
+      </c>
+      <c r="R38" s="7">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="39" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="K39" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="L39" s="8">
+        <v>2019</v>
+      </c>
+      <c r="M39" s="8">
+        <v>6</v>
+      </c>
+      <c r="N39" s="8">
+        <v>4</v>
+      </c>
+      <c r="O39" s="8">
+        <v>13</v>
+      </c>
+      <c r="P39" s="8">
+        <v>16</v>
+      </c>
+      <c r="Q39" s="8">
+        <v>94</v>
+      </c>
+      <c r="R39" s="8">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="40" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B40" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:18" ht="19.2" x14ac:dyDescent="0.3">
       <c r="B41" s="1" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="L41" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="M41" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="N41" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="O41" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="P41" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q41" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="R41" s="6" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="42" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="K42" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="L42" s="7">
+        <v>62</v>
+      </c>
+      <c r="M42" s="7">
+        <v>62</v>
+      </c>
+      <c r="N42" s="7">
+        <v>62</v>
+      </c>
+      <c r="O42" s="7">
+        <v>62</v>
+      </c>
+      <c r="P42" s="7">
+        <v>62</v>
+      </c>
+      <c r="Q42" s="7">
+        <v>62</v>
+      </c>
+      <c r="R42" s="7">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="43" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B43" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="K43" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="L43" s="8">
+        <v>2018</v>
+      </c>
+      <c r="M43" s="8">
+        <v>1.9193549999999999</v>
+      </c>
+      <c r="N43" s="8">
+        <v>2.4354840000000002</v>
+      </c>
+      <c r="O43" s="8">
+        <v>4.6129030000000002</v>
+      </c>
+      <c r="P43" s="8">
+        <v>9.3225809999999996</v>
+      </c>
+      <c r="Q43" s="8">
+        <v>72.177419</v>
+      </c>
+      <c r="R43" s="8">
+        <v>70.112903000000003</v>
+      </c>
+    </row>
+    <row r="44" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B44" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="K44" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="L44" s="7">
+        <v>0</v>
+      </c>
+      <c r="M44" s="7">
+        <v>1.205158</v>
+      </c>
+      <c r="N44" s="7">
+        <v>1.139758</v>
+      </c>
+      <c r="O44" s="7">
+        <v>3.4515609999999999</v>
+      </c>
+      <c r="P44" s="7">
+        <v>4.2146280000000003</v>
+      </c>
+      <c r="Q44" s="7">
+        <v>12.354761999999999</v>
+      </c>
+      <c r="R44" s="7">
+        <v>12.024708</v>
+      </c>
+    </row>
+    <row r="45" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="K45" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="L45" s="8">
+        <v>2018</v>
+      </c>
+      <c r="M45" s="8">
+        <v>1</v>
+      </c>
+      <c r="N45" s="8">
+        <v>1</v>
+      </c>
+      <c r="O45" s="8">
+        <v>1</v>
+      </c>
+      <c r="P45" s="8">
+        <v>1</v>
+      </c>
+      <c r="Q45" s="8">
+        <v>43</v>
+      </c>
+      <c r="R45" s="8">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="46" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B46" s="3" t="s">
         <v>48</v>
+      </c>
+      <c r="K46" s="9">
+        <v>0.25</v>
+      </c>
+      <c r="L46" s="7">
+        <v>2018</v>
+      </c>
+      <c r="M46" s="7">
+        <v>1</v>
+      </c>
+      <c r="N46" s="7">
+        <v>1</v>
+      </c>
+      <c r="O46" s="7">
+        <v>2</v>
+      </c>
+      <c r="P46" s="7">
+        <v>5.25</v>
+      </c>
+      <c r="Q46" s="7">
+        <v>62</v>
+      </c>
+      <c r="R46" s="7">
+        <v>61.25</v>
+      </c>
+    </row>
+    <row r="47" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="K47" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="L47" s="8">
+        <v>2018</v>
+      </c>
+      <c r="M47" s="8">
+        <v>1.5</v>
+      </c>
+      <c r="N47" s="8">
+        <v>2</v>
+      </c>
+      <c r="O47" s="8">
+        <v>3.5</v>
+      </c>
+      <c r="P47" s="8">
+        <v>10</v>
+      </c>
+      <c r="Q47" s="8">
+        <v>71.5</v>
+      </c>
+      <c r="R47" s="8">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="48" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="B48" t="s">
+        <v>49</v>
+      </c>
+      <c r="K48" s="9">
+        <v>0.75</v>
+      </c>
+      <c r="L48" s="7">
+        <v>2018</v>
+      </c>
+      <c r="M48" s="7">
+        <v>2</v>
+      </c>
+      <c r="N48" s="7">
+        <v>3</v>
+      </c>
+      <c r="O48" s="7">
+        <v>7</v>
+      </c>
+      <c r="P48" s="7">
+        <v>12</v>
+      </c>
+      <c r="Q48" s="7">
+        <v>81.75</v>
+      </c>
+      <c r="R48" s="7">
+        <v>78.75</v>
+      </c>
+    </row>
+    <row r="49" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B49" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="K49" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="L49" s="8">
+        <v>2018</v>
+      </c>
+      <c r="M49" s="8">
+        <v>6</v>
+      </c>
+      <c r="N49" s="8">
+        <v>4</v>
+      </c>
+      <c r="O49" s="8">
+        <v>16</v>
+      </c>
+      <c r="P49" s="8">
+        <v>16</v>
+      </c>
+      <c r="Q49" s="8">
+        <v>102</v>
+      </c>
+      <c r="R49" s="8">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="50" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B50" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="51" spans="2:18" ht="19.2" x14ac:dyDescent="0.3">
+      <c r="B51" t="s">
+        <v>65</v>
+      </c>
+      <c r="L51" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="M51" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="N51" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="O51" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="P51" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q51" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="R51" s="6" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="52" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="K52" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="L52" s="7">
+        <v>60</v>
+      </c>
+      <c r="M52" s="7">
+        <v>60</v>
+      </c>
+      <c r="N52" s="7">
+        <v>60</v>
+      </c>
+      <c r="O52" s="7">
+        <v>60</v>
+      </c>
+      <c r="P52" s="7">
+        <v>60</v>
+      </c>
+      <c r="Q52" s="7">
+        <v>60</v>
+      </c>
+      <c r="R52" s="7">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="53" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="K53" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="L53" s="8">
+        <v>2017</v>
+      </c>
+      <c r="M53" s="8">
+        <v>1.933333</v>
+      </c>
+      <c r="N53" s="8">
+        <v>2.3666670000000001</v>
+      </c>
+      <c r="O53" s="8">
+        <v>3.6666669999999999</v>
+      </c>
+      <c r="P53" s="8">
+        <v>9.2833330000000007</v>
+      </c>
+      <c r="Q53" s="8">
+        <v>78.033332999999999</v>
+      </c>
+      <c r="R53" s="8">
+        <v>70.716667000000001</v>
+      </c>
+    </row>
+    <row r="54" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="K54" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="L54" s="7">
+        <v>0</v>
+      </c>
+      <c r="M54" s="7">
+        <v>1.219428</v>
+      </c>
+      <c r="N54" s="7">
+        <v>1.1041780000000001</v>
+      </c>
+      <c r="O54" s="7">
+        <v>2.3409879999999998</v>
+      </c>
+      <c r="P54" s="7">
+        <v>4.3339090000000002</v>
+      </c>
+      <c r="Q54" s="7">
+        <v>11.127865</v>
+      </c>
+      <c r="R54" s="7">
+        <v>9.9967649999999999</v>
+      </c>
+    </row>
+    <row r="55" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="K55" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="L55" s="8">
+        <v>2017</v>
+      </c>
+      <c r="M55" s="8">
+        <v>1</v>
+      </c>
+      <c r="N55" s="8">
+        <v>1</v>
+      </c>
+      <c r="O55" s="8">
+        <v>1</v>
+      </c>
+      <c r="P55" s="8">
+        <v>1</v>
+      </c>
+      <c r="Q55" s="8">
+        <v>58</v>
+      </c>
+      <c r="R55" s="8">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="56" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="K56" s="9">
+        <v>0.25</v>
+      </c>
+      <c r="L56" s="7">
+        <v>2017</v>
+      </c>
+      <c r="M56" s="7">
+        <v>1</v>
+      </c>
+      <c r="N56" s="7">
+        <v>1</v>
+      </c>
+      <c r="O56" s="7">
+        <v>1.75</v>
+      </c>
+      <c r="P56" s="7">
+        <v>5.75</v>
+      </c>
+      <c r="Q56" s="7">
+        <v>69.75</v>
+      </c>
+      <c r="R56" s="7">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="57" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="K57" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="L57" s="8">
+        <v>2017</v>
+      </c>
+      <c r="M57" s="8">
+        <v>1.5</v>
+      </c>
+      <c r="N57" s="8">
+        <v>2</v>
+      </c>
+      <c r="O57" s="8">
+        <v>3</v>
+      </c>
+      <c r="P57" s="8">
+        <v>10</v>
+      </c>
+      <c r="Q57" s="8">
+        <v>76.5</v>
+      </c>
+      <c r="R57" s="8">
+        <v>72.5</v>
+      </c>
+    </row>
+    <row r="58" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="K58" s="9">
+        <v>0.75</v>
+      </c>
+      <c r="L58" s="7">
+        <v>2017</v>
+      </c>
+      <c r="M58" s="7">
+        <v>2.25</v>
+      </c>
+      <c r="N58" s="7">
+        <v>3</v>
+      </c>
+      <c r="O58" s="7">
+        <v>5.25</v>
+      </c>
+      <c r="P58" s="7">
+        <v>12.25</v>
+      </c>
+      <c r="Q58" s="7">
+        <v>85.25</v>
+      </c>
+      <c r="R58" s="7">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="59" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="K59" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="L59" s="8">
+        <v>2017</v>
+      </c>
+      <c r="M59" s="8">
+        <v>6</v>
+      </c>
+      <c r="N59" s="8">
+        <v>4</v>
+      </c>
+      <c r="O59" s="8">
+        <v>8</v>
+      </c>
+      <c r="P59" s="8">
+        <v>16</v>
+      </c>
+      <c r="Q59" s="8">
+        <v>103</v>
+      </c>
+      <c r="R59" s="8">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="61" spans="2:18" ht="19.2" x14ac:dyDescent="0.3">
+      <c r="K61" s="6"/>
+      <c r="L61" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="M61" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="N61" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="O61" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="P61" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q61" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="R61" s="6" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="62" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="K62" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="L62" s="7">
+        <v>60</v>
+      </c>
+      <c r="M62" s="7">
+        <v>60</v>
+      </c>
+      <c r="N62" s="7">
+        <v>60</v>
+      </c>
+      <c r="O62" s="7">
+        <v>60</v>
+      </c>
+      <c r="P62" s="7">
+        <v>60</v>
+      </c>
+      <c r="Q62" s="7">
+        <v>60</v>
+      </c>
+      <c r="R62" s="7">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="63" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="K63" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="L63" s="8">
+        <v>2016</v>
+      </c>
+      <c r="M63" s="8">
+        <v>1.933333</v>
+      </c>
+      <c r="N63" s="8">
+        <v>2.4666670000000002</v>
+      </c>
+      <c r="O63" s="8">
+        <v>4.016667</v>
+      </c>
+      <c r="P63" s="8">
+        <v>9.6333330000000004</v>
+      </c>
+      <c r="Q63" s="8">
+        <v>75.716667000000001</v>
+      </c>
+      <c r="R63" s="8">
+        <v>69.883332999999993</v>
+      </c>
+    </row>
+    <row r="64" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="K64" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="L64" s="7">
+        <v>0</v>
+      </c>
+      <c r="M64" s="7">
+        <v>1.219428</v>
+      </c>
+      <c r="N64" s="7">
+        <v>1.1118269999999999</v>
+      </c>
+      <c r="O64" s="7">
+        <v>3.3369610000000001</v>
+      </c>
+      <c r="P64" s="7">
+        <v>4.0125510000000002</v>
+      </c>
+      <c r="Q64" s="7">
+        <v>13.449329000000001</v>
+      </c>
+      <c r="R64" s="7">
+        <v>9.3411639999999991</v>
+      </c>
+    </row>
+    <row r="65" spans="11:18" x14ac:dyDescent="0.3">
+      <c r="K65" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="L65" s="8">
+        <v>2016</v>
+      </c>
+      <c r="M65" s="8">
+        <v>1</v>
+      </c>
+      <c r="N65" s="8">
+        <v>1</v>
+      </c>
+      <c r="O65" s="8">
+        <v>1</v>
+      </c>
+      <c r="P65" s="8">
+        <v>1</v>
+      </c>
+      <c r="Q65" s="8">
+        <v>47</v>
+      </c>
+      <c r="R65" s="8">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="66" spans="11:18" x14ac:dyDescent="0.3">
+      <c r="K66" s="9">
+        <v>0.25</v>
+      </c>
+      <c r="L66" s="7">
+        <v>2016</v>
+      </c>
+      <c r="M66" s="7">
+        <v>1</v>
+      </c>
+      <c r="N66" s="7">
+        <v>1.75</v>
+      </c>
+      <c r="O66" s="7">
+        <v>1</v>
+      </c>
+      <c r="P66" s="7">
+        <v>6.75</v>
+      </c>
+      <c r="Q66" s="7">
+        <v>67</v>
+      </c>
+      <c r="R66" s="7">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="67" spans="11:18" x14ac:dyDescent="0.3">
+      <c r="K67" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="L67" s="8">
+        <v>2016</v>
+      </c>
+      <c r="M67" s="8">
+        <v>1.5</v>
+      </c>
+      <c r="N67" s="8">
+        <v>2</v>
+      </c>
+      <c r="O67" s="8">
+        <v>3</v>
+      </c>
+      <c r="P67" s="8">
+        <v>10</v>
+      </c>
+      <c r="Q67" s="8">
+        <v>77</v>
+      </c>
+      <c r="R67" s="8">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="68" spans="11:18" x14ac:dyDescent="0.3">
+      <c r="K68" s="9">
+        <v>0.75</v>
+      </c>
+      <c r="L68" s="7">
+        <v>2016</v>
+      </c>
+      <c r="M68" s="7">
+        <v>2.25</v>
+      </c>
+      <c r="N68" s="7">
+        <v>3</v>
+      </c>
+      <c r="O68" s="7">
+        <v>6</v>
+      </c>
+      <c r="P68" s="7">
+        <v>12.25</v>
+      </c>
+      <c r="Q68" s="7">
+        <v>85</v>
+      </c>
+      <c r="R68" s="7">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="69" spans="11:18" x14ac:dyDescent="0.3">
+      <c r="K69" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="L69" s="8">
+        <v>2016</v>
+      </c>
+      <c r="M69" s="8">
+        <v>6</v>
+      </c>
+      <c r="N69" s="8">
+        <v>4</v>
+      </c>
+      <c r="O69" s="8">
+        <v>15</v>
+      </c>
+      <c r="P69" s="8">
+        <v>16</v>
+      </c>
+      <c r="Q69" s="8">
+        <v>105</v>
+      </c>
+      <c r="R69" s="8">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="71" spans="11:18" ht="19.2" x14ac:dyDescent="0.3">
+      <c r="L71" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="M71" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="N71" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="O71" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="P71" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q71" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="R71" s="6" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="72" spans="11:18" x14ac:dyDescent="0.3">
+      <c r="K72" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="L72" s="11">
+        <v>57</v>
+      </c>
+      <c r="M72" s="11">
+        <v>57</v>
+      </c>
+      <c r="N72" s="11">
+        <v>57</v>
+      </c>
+      <c r="O72" s="11">
+        <v>57</v>
+      </c>
+      <c r="P72" s="11">
+        <v>57</v>
+      </c>
+      <c r="Q72" s="11">
+        <v>57</v>
+      </c>
+      <c r="R72" s="11">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="73" spans="11:18" x14ac:dyDescent="0.3">
+      <c r="K73" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="L73" s="8">
+        <v>2015</v>
+      </c>
+      <c r="M73" s="8">
+        <v>1.947368</v>
+      </c>
+      <c r="N73" s="8">
+        <v>2.5789469999999999</v>
+      </c>
+      <c r="O73" s="11">
+        <v>4.017544</v>
+      </c>
+      <c r="P73" s="11">
+        <v>8.9473680000000009</v>
+      </c>
+      <c r="Q73" s="11">
+        <v>69.982455999999999</v>
+      </c>
+      <c r="R73" s="11">
+        <v>63.701754000000001</v>
+      </c>
+    </row>
+    <row r="74" spans="11:18" x14ac:dyDescent="0.3">
+      <c r="K74" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="L74" s="7">
+        <v>0</v>
+      </c>
+      <c r="M74" s="7">
+        <v>1.230869</v>
+      </c>
+      <c r="N74" s="7">
+        <v>1.1010930000000001</v>
+      </c>
+      <c r="O74" s="11">
+        <v>3.0266150000000001</v>
+      </c>
+      <c r="P74" s="11">
+        <v>4.2444129999999998</v>
+      </c>
+      <c r="Q74" s="11">
+        <v>9.9075930000000003</v>
+      </c>
+      <c r="R74" s="11">
+        <v>9.895823</v>
+      </c>
+    </row>
+    <row r="75" spans="11:18" x14ac:dyDescent="0.3">
+      <c r="K75" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="L75" s="8">
+        <v>2015</v>
+      </c>
+      <c r="M75" s="8">
+        <v>1</v>
+      </c>
+      <c r="N75" s="8">
+        <v>1</v>
+      </c>
+      <c r="O75" s="8">
+        <v>1</v>
+      </c>
+      <c r="P75" s="8">
+        <v>1</v>
+      </c>
+      <c r="Q75" s="8">
+        <v>53</v>
+      </c>
+      <c r="R75" s="8">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="76" spans="11:18" x14ac:dyDescent="0.3">
+      <c r="K76" s="12">
+        <v>0.25</v>
+      </c>
+      <c r="L76" s="7">
+        <v>2015</v>
+      </c>
+      <c r="M76" s="7">
+        <v>1</v>
+      </c>
+      <c r="N76" s="7">
+        <v>2</v>
+      </c>
+      <c r="O76" s="7">
+        <v>2</v>
+      </c>
+      <c r="P76" s="7">
+        <v>5</v>
+      </c>
+      <c r="Q76" s="7">
+        <v>64</v>
+      </c>
+      <c r="R76" s="7">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="77" spans="11:18" x14ac:dyDescent="0.3">
+      <c r="K77" s="12">
+        <v>0.5</v>
+      </c>
+      <c r="L77" s="8">
+        <v>2015</v>
+      </c>
+      <c r="M77" s="8">
+        <v>2</v>
+      </c>
+      <c r="N77" s="8">
+        <v>3</v>
+      </c>
+      <c r="O77" s="8">
+        <v>3</v>
+      </c>
+      <c r="P77" s="8">
+        <v>9</v>
+      </c>
+      <c r="Q77" s="8">
+        <v>68</v>
+      </c>
+      <c r="R77" s="8">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="78" spans="11:18" x14ac:dyDescent="0.3">
+      <c r="K78" s="12">
+        <v>0.75</v>
+      </c>
+      <c r="L78" s="7">
+        <v>2015</v>
+      </c>
+      <c r="M78" s="7">
+        <v>2</v>
+      </c>
+      <c r="N78" s="7">
+        <v>4</v>
+      </c>
+      <c r="O78" s="7">
+        <v>6</v>
+      </c>
+      <c r="P78" s="7">
+        <v>12</v>
+      </c>
+      <c r="Q78" s="7">
+        <v>76</v>
+      </c>
+      <c r="R78" s="7">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="79" spans="11:18" x14ac:dyDescent="0.3">
+      <c r="K79" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="L79" s="8">
+        <v>2015</v>
+      </c>
+      <c r="M79" s="8">
+        <v>6</v>
+      </c>
+      <c r="N79" s="8">
+        <v>4</v>
+      </c>
+      <c r="O79" s="8">
+        <v>14</v>
+      </c>
+      <c r="P79" s="8">
+        <v>16</v>
+      </c>
+      <c r="Q79" s="8">
+        <v>93</v>
+      </c>
+      <c r="R79" s="8">
+        <v>92</v>
       </c>
     </row>
   </sheetData>
@@ -867,8 +2130,9 @@
     <hyperlink ref="B44" r:id="rId4" xr:uid="{6785D43D-ADE1-44C6-BBBD-A2FAA0AF385B}"/>
     <hyperlink ref="J15" r:id="rId5" location="3-pick-your-favorite-stat-and-follow-it-to-the-ends-of-bracket-possibility-3" display="https://www.businessinsider.com/bracket-strategy-march-madness-2018-3 - 3-pick-your-favorite-stat-and-follow-it-to-the-ends-of-bracket-possibility-3" xr:uid="{BDE0F8D7-978E-41C5-9643-7A835CC9ED4F}"/>
     <hyperlink ref="B46" r:id="rId6" xr:uid="{E582B332-CEFD-4B7F-A065-25A3D361FC20}"/>
+    <hyperlink ref="B49" r:id="rId7" xr:uid="{0D9C33B8-6412-45CE-877B-983A14E623CB}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId7"/>
+  <pageSetup orientation="portrait" r:id="rId8"/>
 </worksheet>
 </file>